--- a/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:33:00+00:00</t>
+    <t>2024-05-23T12:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -237,10 +237,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Spécification métier vers l'extension ROR HealthcareServiceContact</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Spécification métier vers l'extension ROR HealthcareServiceContact</t>
   </si>
   <si>
     <t/>
@@ -825,8 +825,8 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="81.9453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="81.9453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1045,10 +1045,10 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1151,10 +1151,10 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1471,10 +1471,10 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1685,10 +1685,10 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1791,10 +1791,10 @@
         <v>117</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2113,10 +2113,10 @@
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -2327,10 +2327,10 @@
         <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -2431,10 +2431,10 @@
         <v>117</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -2645,10 +2645,10 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -2859,10 +2859,10 @@
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -2965,10 +2965,10 @@
         <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="21">
@@ -3289,10 +3289,10 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -3395,10 +3395,10 @@
         <v>117</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:16:26+00:00</t>
+    <t>2024-12-09T16:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
